--- a/nari/category_crawling/test_data_categories_final.xlsx
+++ b/nari/category_crawling/test_data_categories_final.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk_jo\Desktop\Project\titanic\nari\category_crawling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43D820-9DEA-4921-974F-30E89DDF6D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$350</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="591">
   <si>
     <t>상품명</t>
   </si>
@@ -1781,41 +1793,65 @@
   </si>
   <si>
     <t>아놀드파마 티셔츠레깅스세트</t>
+  </si>
+  <si>
+    <t>건강식품</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1825,7 +1861,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1839,42 +1881,43 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2064,25 +2107,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G351" sqref="G351"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="71.13"/>
-    <col customWidth="1" min="3" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="71.125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,9 +2148,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2119,9 +2168,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -2139,9 +2188,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -2159,9 +2208,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -2179,9 +2228,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
@@ -2199,9 +2248,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -2219,9 +2268,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -2239,9 +2288,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -2259,9 +2308,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>37</v>
@@ -2279,9 +2328,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -2299,9 +2348,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -2319,9 +2368,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>44</v>
@@ -2339,9 +2388,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
@@ -2359,9 +2408,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
@@ -2379,9 +2428,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>55</v>
@@ -2399,9 +2448,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>58</v>
@@ -2419,9 +2468,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -2439,9 +2488,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>60</v>
@@ -2459,9 +2508,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>64</v>
@@ -2479,9 +2528,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
@@ -2499,9 +2548,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>66</v>
@@ -2519,9 +2568,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>68</v>
@@ -2539,9 +2588,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
@@ -2559,9 +2608,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>74</v>
@@ -2579,9 +2628,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>78</v>
@@ -2599,9 +2648,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>80</v>
@@ -2619,9 +2668,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
@@ -2639,9 +2688,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>84</v>
@@ -2659,9 +2708,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>86</v>
@@ -2679,9 +2728,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>89</v>
@@ -2699,9 +2748,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>92</v>
@@ -2719,9 +2768,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>95</v>
@@ -2739,9 +2788,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>96</v>
@@ -2759,9 +2808,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>98</v>
@@ -2779,9 +2828,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>102</v>
@@ -2799,9 +2848,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>104</v>
@@ -2819,9 +2868,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>107</v>
@@ -2839,9 +2888,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>108</v>
@@ -2859,9 +2908,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>109</v>
@@ -2879,9 +2928,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>110</v>
@@ -2899,9 +2948,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>112</v>
@@ -2919,9 +2968,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>113</v>
@@ -2939,9 +2988,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>114</v>
@@ -2959,9 +3008,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>116</v>
@@ -2979,9 +3028,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>117</v>
@@ -2999,9 +3048,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>120</v>
@@ -3019,9 +3068,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>123</v>
@@ -3039,9 +3088,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>124</v>
@@ -3059,9 +3108,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>125</v>
@@ -3079,9 +3128,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>126</v>
@@ -3099,9 +3148,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>127</v>
@@ -3119,9 +3168,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>128</v>
@@ -3139,9 +3188,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>129</v>
@@ -3159,9 +3208,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>130</v>
@@ -3179,9 +3228,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>133</v>
@@ -3199,9 +3248,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>137</v>
@@ -3219,9 +3268,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>138</v>
@@ -3239,9 +3288,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>140</v>
@@ -3259,9 +3308,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>143</v>
@@ -3279,9 +3328,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>146</v>
@@ -3299,9 +3348,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>148</v>
@@ -3319,9 +3368,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>150</v>
@@ -3339,9 +3388,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>151</v>
@@ -3359,9 +3408,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>152</v>
@@ -3379,9 +3428,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>154</v>
@@ -3399,9 +3448,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>156</v>
@@ -3419,9 +3468,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>157</v>
@@ -3439,9 +3488,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>158</v>
@@ -3459,9 +3508,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>159</v>
@@ -3479,9 +3528,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>161</v>
@@ -3499,9 +3548,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>164</v>
@@ -3519,9 +3568,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>167</v>
@@ -3539,9 +3588,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>170</v>
@@ -3559,9 +3608,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>172</v>
@@ -3579,9 +3628,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>173</v>
@@ -3598,10 +3647,13 @@
       <c r="F76" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+      <c r="G76" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>177</v>
@@ -3619,9 +3671,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>179</v>
@@ -3639,9 +3691,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>180</v>
@@ -3659,9 +3711,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>182</v>
@@ -3679,9 +3731,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>185</v>
@@ -3699,9 +3751,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>188</v>
@@ -3719,9 +3771,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>189</v>
@@ -3739,9 +3791,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>191</v>
@@ -3759,9 +3811,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>192</v>
@@ -3779,9 +3831,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>193</v>
@@ -3799,9 +3851,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>194</v>
@@ -3819,9 +3871,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>197</v>
@@ -3839,9 +3891,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>198</v>
@@ -3859,9 +3911,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>199</v>
@@ -3879,9 +3931,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>200</v>
@@ -3899,9 +3951,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>202</v>
@@ -3919,9 +3971,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>203</v>
@@ -3939,9 +3991,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>204</v>
@@ -3959,9 +4011,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>205</v>
@@ -3979,9 +4031,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>207</v>
@@ -3999,9 +4051,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>211</v>
@@ -4019,9 +4071,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>212</v>
@@ -4039,9 +4091,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>213</v>
@@ -4059,9 +4111,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>214</v>
@@ -4079,9 +4131,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A101" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>215</v>
@@ -4099,9 +4151,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>218</v>
@@ -4119,9 +4171,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>220</v>
@@ -4139,9 +4191,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>223</v>
@@ -4159,9 +4211,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>224</v>
@@ -4179,9 +4231,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>225</v>
@@ -4199,9 +4251,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>228</v>
@@ -4219,9 +4271,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>229</v>
@@ -4239,9 +4291,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>230</v>
@@ -4259,9 +4311,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>232</v>
@@ -4279,9 +4331,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>234</v>
@@ -4299,9 +4351,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>235</v>
@@ -4319,9 +4371,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>237</v>
@@ -4339,9 +4391,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>238</v>
@@ -4359,9 +4411,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>239</v>
@@ -4379,9 +4431,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>240</v>
@@ -4399,9 +4451,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>242</v>
@@ -4419,9 +4471,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>243</v>
@@ -4439,9 +4491,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>245</v>
@@ -4459,9 +4511,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>249</v>
@@ -4479,9 +4531,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>250</v>
@@ -4499,9 +4551,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>253</v>
@@ -4519,9 +4571,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>254</v>
@@ -4539,9 +4591,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>257</v>
@@ -4559,9 +4611,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>258</v>
@@ -4579,9 +4631,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>261</v>
@@ -4599,9 +4651,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>262</v>
@@ -4619,9 +4671,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>263</v>
@@ -4639,9 +4691,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>264</v>
@@ -4659,9 +4711,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>265</v>
@@ -4679,9 +4731,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>266</v>
@@ -4699,9 +4751,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>267</v>
@@ -4719,9 +4771,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>268</v>
@@ -4739,9 +4791,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>269</v>
@@ -4759,9 +4811,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>270</v>
@@ -4779,9 +4831,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>273</v>
@@ -4799,9 +4851,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>274</v>
@@ -4819,9 +4871,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>275</v>
@@ -4839,9 +4891,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>276</v>
@@ -4859,9 +4911,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>277</v>
@@ -4879,9 +4931,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>278</v>
@@ -4899,9 +4951,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>279</v>
@@ -4919,9 +4971,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>280</v>
@@ -4939,9 +4991,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>281</v>
@@ -4959,9 +5011,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>282</v>
@@ -4979,9 +5031,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>283</v>
@@ -4999,9 +5051,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>284</v>
@@ -5019,9 +5071,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>285</v>
@@ -5039,9 +5091,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>286</v>
@@ -5059,9 +5111,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>287</v>
@@ -5079,9 +5131,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>288</v>
@@ -5099,9 +5151,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>292</v>
@@ -5119,9 +5171,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>293</v>
@@ -5139,9 +5191,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>294</v>
@@ -5159,9 +5211,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>296</v>
@@ -5179,9 +5231,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>299</v>
@@ -5199,9 +5251,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>303</v>
@@ -5219,9 +5271,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>304</v>
@@ -5239,9 +5291,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>306</v>
@@ -5259,9 +5311,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>307</v>
@@ -5279,9 +5331,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>310</v>
@@ -5299,9 +5351,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>311</v>
@@ -5319,9 +5371,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>312</v>
@@ -5339,9 +5391,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>314</v>
@@ -5359,9 +5411,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>317</v>
@@ -5379,9 +5431,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>318</v>
@@ -5399,9 +5451,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>319</v>
@@ -5419,9 +5471,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>323</v>
@@ -5439,9 +5491,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>325</v>
@@ -5459,9 +5511,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>326</v>
@@ -5479,9 +5531,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>327</v>
@@ -5499,9 +5551,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>328</v>
@@ -5519,9 +5571,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>331</v>
@@ -5539,9 +5591,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>332</v>
@@ -5559,9 +5611,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>333</v>
@@ -5579,9 +5631,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>334</v>
@@ -5599,9 +5651,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>335</v>
@@ -5619,9 +5671,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>336</v>
@@ -5639,9 +5691,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>338</v>
@@ -5659,9 +5711,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>341</v>
@@ -5679,9 +5731,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>342</v>
@@ -5699,9 +5751,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>343</v>
@@ -5719,9 +5771,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>344</v>
@@ -5739,9 +5791,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>346</v>
@@ -5759,9 +5811,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>348</v>
@@ -5779,9 +5831,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>349</v>
@@ -5799,9 +5851,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>352</v>
@@ -5819,9 +5871,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>353</v>
@@ -5839,9 +5891,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>355</v>
@@ -5859,9 +5911,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>356</v>
@@ -5879,9 +5931,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>357</v>
@@ -5899,9 +5951,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>359</v>
@@ -5919,9 +5971,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>360</v>
@@ -5939,9 +5991,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>361</v>
@@ -5959,9 +6011,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>362</v>
@@ -5979,9 +6031,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>363</v>
@@ -5999,9 +6051,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>364</v>
@@ -6019,9 +6071,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>368</v>
@@ -6039,9 +6091,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>370</v>
@@ -6059,9 +6111,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>371</v>
@@ -6079,9 +6131,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>372</v>
@@ -6099,9 +6151,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>373</v>
@@ -6119,9 +6171,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>374</v>
@@ -6139,9 +6191,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>375</v>
@@ -6159,9 +6211,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>376</v>
@@ -6179,9 +6231,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>377</v>
@@ -6199,9 +6251,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>378</v>
@@ -6219,9 +6271,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A208" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>380</v>
@@ -6239,9 +6291,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A209" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>383</v>
@@ -6259,9 +6311,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>386</v>
@@ -6279,9 +6331,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A211" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>389</v>
@@ -6299,9 +6351,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A212" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>390</v>
@@ -6319,9 +6371,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A213" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>391</v>
@@ -6339,9 +6391,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>392</v>
@@ -6359,9 +6411,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>393</v>
@@ -6379,9 +6431,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>394</v>
@@ -6399,9 +6451,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>395</v>
@@ -6419,9 +6471,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>396</v>
@@ -6439,9 +6491,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A219" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>397</v>
@@ -6459,9 +6511,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>398</v>
@@ -6479,9 +6531,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A221" s="1">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>401</v>
@@ -6499,9 +6551,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>404</v>
@@ -6519,9 +6571,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A223" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>405</v>
@@ -6539,9 +6591,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A224" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>406</v>
@@ -6559,9 +6611,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A225" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>407</v>
@@ -6579,9 +6631,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>408</v>
@@ -6599,9 +6651,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A227" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>411</v>
@@ -6619,9 +6671,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>413</v>
@@ -6639,9 +6691,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="1">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>414</v>
@@ -6659,9 +6711,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>415</v>
@@ -6679,9 +6731,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>416</v>
@@ -6699,9 +6751,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>418</v>
@@ -6719,9 +6771,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A233" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>419</v>
@@ -6739,9 +6791,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>421</v>
@@ -6759,9 +6811,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A235" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>422</v>
@@ -6779,9 +6831,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>425</v>
@@ -6799,9 +6851,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>427</v>
@@ -6819,9 +6871,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>428</v>
@@ -6839,9 +6891,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>429</v>
@@ -6859,9 +6911,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="1">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>430</v>
@@ -6879,9 +6931,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="1">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>431</v>
@@ -6899,9 +6951,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A242" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>433</v>
@@ -6919,9 +6971,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>435</v>
@@ -6939,9 +6991,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>438</v>
@@ -6959,9 +7011,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="1">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>441</v>
@@ -6979,9 +7031,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A246" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>444</v>
@@ -6999,9 +7051,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A247" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>445</v>
@@ -7019,9 +7071,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A248" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>446</v>
@@ -7039,9 +7091,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>449</v>
@@ -7059,9 +7111,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A250" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>450</v>
@@ -7079,9 +7131,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A251" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>452</v>
@@ -7099,9 +7151,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>453</v>
@@ -7119,9 +7171,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A253" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>454</v>
@@ -7139,9 +7191,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A254" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>455</v>
@@ -7159,9 +7211,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A255" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>458</v>
@@ -7179,9 +7231,9 @@
         <v>459</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>460</v>
@@ -7199,9 +7251,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A257" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>461</v>
@@ -7219,9 +7271,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>462</v>
@@ -7239,9 +7291,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>463</v>
@@ -7259,9 +7311,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>464</v>
@@ -7279,9 +7331,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="1">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>467</v>
@@ -7299,9 +7351,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A262" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>470</v>
@@ -7319,9 +7371,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>471</v>
@@ -7339,9 +7391,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>472</v>
@@ -7359,9 +7411,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>473</v>
@@ -7379,9 +7431,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A266" s="1">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>475</v>
@@ -7399,9 +7451,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A267" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>476</v>
@@ -7419,9 +7471,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A268" s="1">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>478</v>
@@ -7439,9 +7491,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>480</v>
@@ -7459,9 +7511,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>481</v>
@@ -7479,9 +7531,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>482</v>
@@ -7499,9 +7551,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>483</v>
@@ -7519,9 +7571,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="1">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>485</v>
@@ -7539,9 +7591,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="1">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>488</v>
@@ -7559,9 +7611,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>489</v>
@@ -7579,9 +7631,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="1">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>490</v>
@@ -7599,9 +7651,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>492</v>
@@ -7619,9 +7671,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="1">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>493</v>
@@ -7639,9 +7691,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>494</v>
@@ -7659,9 +7711,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A280" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>497</v>
@@ -7679,9 +7731,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>498</v>
@@ -7699,9 +7751,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A282" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>499</v>
@@ -7719,9 +7771,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="1">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>500</v>
@@ -7739,9 +7791,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="1">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>501</v>
@@ -7759,9 +7811,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>502</v>
@@ -7779,9 +7831,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A286" s="1">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>503</v>
@@ -7799,9 +7851,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>506</v>
@@ -7819,9 +7871,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>507</v>
@@ -7839,9 +7891,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>508</v>
@@ -7859,9 +7911,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>509</v>
@@ -7879,9 +7931,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="1">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>510</v>
@@ -7899,9 +7951,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="1">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>511</v>
@@ -7919,9 +7971,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>512</v>
@@ -7939,9 +7991,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>514</v>
@@ -7959,9 +8011,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>515</v>
@@ -7979,9 +8031,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>517</v>
@@ -7999,9 +8051,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>518</v>
@@ -8019,9 +8071,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>519</v>
@@ -8039,9 +8091,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>520</v>
@@ -8059,9 +8111,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>521</v>
@@ -8079,9 +8131,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>522</v>
@@ -8099,9 +8151,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A302" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>523</v>
@@ -8119,9 +8171,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>524</v>
@@ -8139,9 +8191,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>526</v>
@@ -8159,9 +8211,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>527</v>
@@ -8179,9 +8231,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A306" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>528</v>
@@ -8199,9 +8251,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1">
       <c r="A307" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>531</v>
@@ -8218,10 +8270,13 @@
       <c r="F307" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
+      <c r="G307" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" customHeight="1">
       <c r="A308" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>533</v>
@@ -8238,10 +8293,13 @@
       <c r="F308" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
+      <c r="G308" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>534</v>
@@ -8259,9 +8317,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>535</v>
@@ -8279,9 +8337,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A311" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>536</v>
@@ -8299,9 +8357,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A312" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>537</v>
@@ -8319,9 +8377,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>539</v>
@@ -8339,9 +8397,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>541</v>
@@ -8359,9 +8417,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>542</v>
@@ -8379,9 +8437,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A316" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>543</v>
@@ -8399,9 +8457,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A317" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>544</v>
@@ -8419,9 +8477,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>545</v>
@@ -8439,9 +8497,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A319" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>547</v>
@@ -8459,9 +8517,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A320" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>548</v>
@@ -8479,9 +8537,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>549</v>
@@ -8499,9 +8557,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>550</v>
@@ -8519,9 +8577,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>551</v>
@@ -8539,9 +8597,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>552</v>
@@ -8559,9 +8617,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A325" s="1">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>553</v>
@@ -8579,9 +8637,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A326" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>554</v>
@@ -8599,9 +8657,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A327" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>555</v>
@@ -8619,9 +8677,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A328" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>556</v>
@@ -8639,9 +8697,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>560</v>
@@ -8659,9 +8717,9 @@
         <v>562</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>563</v>
@@ -8679,9 +8737,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="1">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>564</v>
@@ -8699,9 +8757,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>565</v>
@@ -8719,9 +8777,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A333" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>566</v>
@@ -8739,9 +8797,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A334" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>568</v>
@@ -8759,9 +8817,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A335" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>569</v>
@@ -8779,9 +8837,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A336" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>570</v>
@@ -8799,9 +8857,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A337" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>571</v>
@@ -8819,9 +8877,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A338" s="1">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>572</v>
@@ -8839,9 +8897,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A339" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>573</v>
@@ -8859,9 +8917,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A340" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>574</v>
@@ -8879,9 +8937,9 @@
         <v>562</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A341" s="1">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>575</v>
@@ -8899,9 +8957,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A342" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>578</v>
@@ -8919,9 +8977,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A343" s="1">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>579</v>
@@ -8939,9 +8997,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A344" s="1">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>581</v>
@@ -8959,9 +9017,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A345" s="1">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>582</v>
@@ -8979,9 +9037,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A346" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>583</v>
@@ -8999,9 +9057,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A347" s="1">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>584</v>
@@ -9019,9 +9077,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A348" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>585</v>
@@ -9039,9 +9097,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A349" s="1">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>586</v>
@@ -9059,9 +9117,9 @@
         <v>588</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A350" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>589</v>
@@ -9079,8 +9137,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="353" ht="15.75" customHeight="1"/>
     <row r="354" ht="15.75" customHeight="1"/>
     <row r="355" ht="15.75" customHeight="1"/>
@@ -9730,9 +9788,15 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:F350" xr:uid="{96BB36FA-9898-4376-B191-30525FFDFA55}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="건강기능"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nari/category_crawling/test_data_categories_final.xlsx
+++ b/nari/category_crawling/test_data_categories_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk_jo\Desktop\Project\titanic\nari\category_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43D820-9DEA-4921-974F-30E89DDF6D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B66820-D725-42FC-897D-D40F12D66449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="600">
   <si>
     <t>상품명</t>
   </si>
@@ -1796,6 +1796,111 @@
   </si>
   <si>
     <t>건강식품</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테리어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>인테리어</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전디지털</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가전디지털</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스/건강용품</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구/침구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>가구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침구</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>헬스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>건강용품</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1947,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1887,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1899,6 +2017,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2117,7 +2237,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="76" workbookViewId="0">
       <selection activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
@@ -2131,7 +2251,7 @@
     <col min="7" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2168,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2188,7 +2308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2208,7 +2328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2228,7 +2348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2248,7 +2368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2268,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2288,7 +2408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2308,7 +2428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2328,7 +2448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2348,7 +2468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2368,7 +2488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2388,7 +2508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2408,7 +2528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2427,8 +2547,11 @@
       <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1">
+      <c r="G15" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2448,7 +2571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2468,7 +2591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2488,7 +2611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2508,7 +2631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2528,7 +2651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2548,7 +2671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2567,8 +2690,11 @@
       <c r="F22" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G22" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2587,8 +2713,11 @@
       <c r="F23" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G23" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2608,7 +2737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2628,7 +2757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2648,7 +2777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2668,7 +2797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2688,7 +2817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2708,7 +2837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2728,7 +2857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2748,7 +2877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3088,7 +3217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3108,7 +3237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3128,7 +3257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3148,7 +3277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3168,7 +3297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3188,7 +3317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3208,7 +3337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3228,7 +3357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3248,7 +3377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3268,7 +3397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3288,7 +3417,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3308,7 +3437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3327,8 +3456,11 @@
       <c r="F60" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G60" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3348,7 +3480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3368,7 +3500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3388,7 +3520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3428,7 +3560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3447,8 +3579,11 @@
       <c r="F66" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G66" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3466,6 +3601,9 @@
       </c>
       <c r="F67" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1">
@@ -3731,7 +3869,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3751,7 +3889,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3771,7 +3909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3790,8 +3928,11 @@
       <c r="F83" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G83" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3810,8 +3951,11 @@
       <c r="F84" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G84" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3830,8 +3974,11 @@
       <c r="F85" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G85" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3850,8 +3997,11 @@
       <c r="F86" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G86" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3871,7 +4021,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3891,7 +4041,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3911,7 +4061,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3931,7 +4081,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3950,8 +4100,11 @@
       <c r="F91" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G91" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3970,8 +4123,11 @@
       <c r="F92" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G92" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3990,8 +4146,11 @@
       <c r="F93" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G93" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4010,8 +4169,11 @@
       <c r="F94" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G94" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4031,7 +4193,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4051,7 +4213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4071,7 +4233,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4091,7 +4253,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4111,7 +4273,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4131,7 +4293,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4151,7 +4313,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4171,7 +4333,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4191,7 +4353,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4210,8 +4372,11 @@
       <c r="F104" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G104" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4231,7 +4396,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4251,7 +4416,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4271,7 +4436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4291,7 +4456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4311,7 +4476,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4331,7 +4496,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4351,7 +4516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4371,7 +4536,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4391,7 +4556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4411,7 +4576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4430,8 +4595,11 @@
       <c r="F115" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G115" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4451,7 +4619,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4471,7 +4639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4491,7 +4659,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4511,7 +4679,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4531,7 +4699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4551,7 +4719,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4571,7 +4739,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4591,7 +4759,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4611,7 +4779,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4631,7 +4799,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4651,7 +4819,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4671,7 +4839,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4691,7 +4859,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4710,8 +4878,11 @@
       <c r="F129" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G129" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4730,8 +4901,11 @@
       <c r="F130" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G130" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4750,8 +4924,11 @@
       <c r="F131" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G131" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4770,8 +4947,11 @@
       <c r="F132" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G132" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4791,7 +4971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4811,7 +4991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4831,7 +5011,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4851,7 +5031,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4871,7 +5051,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4891,7 +5071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4911,7 +5091,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4931,7 +5111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4951,7 +5131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4971,7 +5151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4991,7 +5171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5011,7 +5191,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5031,7 +5211,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5051,7 +5231,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5071,7 +5251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5091,7 +5271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5111,7 +5291,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5131,7 +5311,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5151,7 +5331,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5171,7 +5351,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5191,7 +5371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="154" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5211,7 +5391,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5231,7 +5411,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5250,8 +5430,11 @@
       <c r="F156" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G156" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5270,8 +5453,11 @@
       <c r="F157" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G157" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5291,7 +5477,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5311,7 +5497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5331,7 +5517,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="161" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5351,7 +5537,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5370,8 +5556,11 @@
       <c r="F162" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G162" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5391,7 +5580,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="164" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5411,7 +5600,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5431,7 +5620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5451,7 +5640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5471,7 +5660,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="168" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5491,7 +5680,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="169" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5511,7 +5700,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5531,7 +5720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="171" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5551,7 +5740,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="172" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5571,7 +5760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5590,8 +5779,11 @@
       <c r="F173" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G173" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5610,8 +5802,11 @@
       <c r="F174" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G174" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5630,8 +5825,11 @@
       <c r="F175" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G175" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5650,8 +5848,11 @@
       <c r="F176" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G176" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5670,8 +5871,11 @@
       <c r="F177" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G177" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5691,7 +5895,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5711,7 +5915,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="180" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5731,7 +5935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="181" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5751,7 +5955,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="182" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5771,7 +5975,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="183" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5791,7 +5995,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5810,8 +6014,11 @@
       <c r="F184" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G184" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5830,8 +6037,11 @@
       <c r="F185" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G185" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5851,7 +6061,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="187" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5871,7 +6081,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="188" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5891,7 +6101,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="189" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5911,7 +6121,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="190" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5931,7 +6141,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="191" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5951,7 +6161,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="192" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5971,7 +6181,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="193" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5991,7 +6201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="194" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6011,7 +6221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6030,8 +6240,11 @@
       <c r="F195" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G195" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" customHeight="1">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6050,8 +6263,11 @@
       <c r="F196" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G196" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6071,7 +6287,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="198" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6091,7 +6307,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="199" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6111,7 +6327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="200" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6131,7 +6347,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="201" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6151,7 +6367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="202" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6171,7 +6387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="203" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6191,7 +6407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6211,7 +6427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="205" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6231,7 +6447,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6251,7 +6467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="207" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6271,7 +6487,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6290,8 +6506,11 @@
       <c r="F208" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G208" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" customHeight="1">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6310,8 +6529,11 @@
       <c r="F209" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G209" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6331,7 +6553,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6350,8 +6572,11 @@
       <c r="F211" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G211" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6370,8 +6595,11 @@
       <c r="F212" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G212" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6390,8 +6618,11 @@
       <c r="F213" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G213" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6411,7 +6642,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="215" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6431,7 +6662,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="216" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6451,7 +6682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="217" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6471,7 +6702,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6490,8 +6721,11 @@
       <c r="F218" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G218" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6511,7 +6745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="220" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6531,7 +6765,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="221" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6551,7 +6785,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="222" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6571,7 +6805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="223" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6591,7 +6825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="224" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6611,7 +6845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="225" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6631,7 +6865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="226" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6651,7 +6885,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6670,8 +6904,11 @@
       <c r="F227" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G227" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" customHeight="1">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6690,8 +6927,11 @@
       <c r="F228" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G228" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6711,7 +6951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="230" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6731,7 +6971,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="231" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6751,7 +6991,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="232" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6771,7 +7011,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6790,8 +7030,11 @@
       <c r="F233" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G233" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6811,7 +7054,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="235" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6831,7 +7074,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="236" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6851,7 +7094,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="237" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6871,7 +7114,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="238" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6891,7 +7134,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="239" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6911,7 +7154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="240" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6931,7 +7174,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6950,8 +7193,11 @@
       <c r="F241" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G241" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" customHeight="1">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6970,8 +7216,11 @@
       <c r="F242" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G242" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6991,7 +7240,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="244" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7011,7 +7260,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="245" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7031,7 +7280,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7050,8 +7299,11 @@
       <c r="F246" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G246" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" customHeight="1">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7070,8 +7322,11 @@
       <c r="F247" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G247" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" customHeight="1">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7090,8 +7345,11 @@
       <c r="F248" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G248" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" customHeight="1">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7110,8 +7368,11 @@
       <c r="F249" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G249" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7131,7 +7392,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7150,8 +7411,11 @@
       <c r="F251" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G251" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7171,7 +7435,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="253" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7191,7 +7455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="254" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7211,7 +7475,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="255" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7231,7 +7495,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="256" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7251,7 +7515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="257" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7271,7 +7535,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="258" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7291,7 +7555,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="259" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7311,7 +7575,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="260" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7331,7 +7595,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="261" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7351,7 +7615,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="262" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7371,7 +7635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="263" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7391,7 +7655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="264" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7411,7 +7675,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="265" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7431,7 +7695,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="266" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7451,7 +7715,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7470,8 +7734,11 @@
       <c r="F267" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G267" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" customHeight="1">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7490,8 +7757,11 @@
       <c r="F268" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G268" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7511,7 +7781,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="270" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7531,7 +7801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="271" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7551,7 +7821,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="272" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7891,7 +8161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="289" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7911,7 +8181,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="290" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7931,7 +8201,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="291" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7951,7 +8221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="292" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7971,7 +8241,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="293" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7991,7 +8261,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="294" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -8011,7 +8281,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="295" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -8031,7 +8301,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="296" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -8051,7 +8321,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="297" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -8071,7 +8341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="298" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -8091,7 +8361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="299" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8111,7 +8381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="300" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -8131,7 +8401,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="301" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -8151,7 +8421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="302" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -8171,7 +8441,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -8190,8 +8460,11 @@
       <c r="F303" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G303" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" customHeight="1">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -8210,8 +8483,11 @@
       <c r="F304" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G304" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" customHeight="1">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -8230,8 +8506,11 @@
       <c r="F305" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G305" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" customHeight="1">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8249,6 +8528,9 @@
       </c>
       <c r="F306" s="2" t="s">
         <v>530</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1">
@@ -8537,7 +8819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="321" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8557,7 +8839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="322" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8577,7 +8859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="323" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8597,7 +8879,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="324" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8617,7 +8899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8636,8 +8918,11 @@
       <c r="F325" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G325" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" customHeight="1">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -8656,8 +8941,11 @@
       <c r="F326" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G326" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" customHeight="1">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -8676,8 +8964,11 @@
       <c r="F327" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G327" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" customHeight="1">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -8696,8 +8987,11 @@
       <c r="F328" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G328" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -8717,7 +9011,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="330" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -8737,7 +9031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="331" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8757,7 +9051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="332" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8777,7 +9071,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="333" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8797,7 +9091,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="334" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8817,7 +9111,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="335" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8837,7 +9131,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="336" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -9792,6 +10086,7 @@
     <filterColumn colId="2">
       <filters>
         <filter val="건강기능"/>
+        <filter val="생활용품"/>
       </filters>
     </filterColumn>
   </autoFilter>
